--- a/02_최종본/04/문제점.xlsx
+++ b/02_최종본/04/문제점.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="소개할 기능" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
-  <si>
-    <t>장바구니 담기 아이디랑 연동안됨( 모든 아이디가 장바구니를 공유중 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
   <si>
     <r>
       <t xml:space="preserve">  </t>
@@ -1413,65 +1410,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFFD866"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"add-review"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF939293"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log 컴포넌트 전체적으로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 주문, 카트담기 토큰 없으면 경고창 보내는걸로 처리할 필요 있어보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onOrder, addCart, addLike 수정,  computed 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징처리 전체적으로 잘못됐음, 건수 긁어오는 부분 다시 체크, totalitems 계속 오류남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 -&gt; 상품등록으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 전체 조회 상품사진 안보임 백 버전 꼬임, 최종본 찾아서 해결할것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>상품상세보기 페이지 오류터짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFCFCFA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF6188"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFFD866"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"add-review"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF939293"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log 컴포넌트 전체적으로 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 주문, 카트담기 토큰 없으면 경고창 보내는걸로 처리할 필요 있어보임</t>
+    <t>main.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http-common.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http-auth.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryDetailbackup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 담기 아이디랑 연동안됨( 모든 아이디가 장바구니를 공유중 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeView.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log 컴포넌트 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageCom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailCom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1479,27 +1540,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>onOrder, addCart, addLike 수정,  computed 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이징처리 전체적으로 잘못됐음, 건수 긁어오는 부분 다시 체크, totalitems 계속 오류남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쓰기 -&gt; 상품등록으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 전체 조회 상품사진 안보임 백 버전 꼬임, 최종본 찾아서 해결할것</t>
+    <t>수저오딘부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 -&gt; 정보변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트담기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.50:8080/add-faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.50:8080/faqs/119</t>
+  </si>
+  <si>
+    <t>주소막기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소막기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 -&gt; 카트&amp;찜목록 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq 수정 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 변경 회원등록에 맞춰서 유효성검사 걸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1507,7 +1675,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,8 +1740,16 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,6 +1759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2D2A2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,10 +1778,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1610,9 +1793,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1890,324 +2076,541 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C136"/>
+  <dimension ref="A1:C136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="73.59765625" customWidth="1"/>
+    <col min="3" max="3" width="41.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A28" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="3" max="3" width="41.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
+    <row r="1" spans="2:8">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>